--- a/Pass_Types.xlsx
+++ b/Pass_Types.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Estudos\PosCD\Projeto Aplicado\Dados Coletados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A4CD09-1DB8-41DA-994C-168A68C829A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99994620-5B72-4D47-9B16-FD850B207EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>Pass Types</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>Alan Carvalho</t>
-  </si>
-  <si>
-    <t>Squad Total</t>
   </si>
   <si>
     <t>Fabio</t>
@@ -1098,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,10 +1211,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1276,10 +1273,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1338,10 +1335,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -1403,7 +1400,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -1465,7 +1462,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -1527,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
@@ -1589,7 +1586,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -1651,7 +1648,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -1713,7 +1710,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -1775,7 +1772,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -1837,7 +1834,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
@@ -1899,7 +1896,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
@@ -1961,7 +1958,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
@@ -2023,7 +2020,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -2085,7 +2082,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -2147,7 +2144,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -2209,7 +2206,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>27</v>
@@ -2271,7 +2268,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
@@ -2333,7 +2330,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
@@ -2395,7 +2392,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>47</v>
@@ -2457,7 +2454,7 @@
         <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
@@ -2519,7 +2516,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
@@ -2581,7 +2578,7 @@
         <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>31</v>
@@ -2643,7 +2640,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -2705,7 +2702,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
@@ -2767,7 +2764,7 @@
         <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -2829,7 +2826,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>31</v>
@@ -2891,7 +2888,7 @@
         <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>31</v>
@@ -2953,7 +2950,7 @@
         <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
@@ -3015,7 +3012,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -3077,7 +3074,7 @@
         <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>38</v>
@@ -3139,7 +3136,7 @@
         <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -3197,78 +3194,26 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="3">
-        <f>AVERAGE(D3:D34)</f>
-        <v>26.90625</v>
-      </c>
-      <c r="E35" s="2">
-        <v>38</v>
-      </c>
-      <c r="F35" s="2">
-        <f>SUM(F3:F34)</f>
-        <v>22006</v>
-      </c>
-      <c r="G35" s="2">
-        <f>SUM(G3:G34)</f>
-        <v>19953</v>
-      </c>
-      <c r="H35" s="2">
-        <f>SUM(H3:H34)</f>
-        <v>1994</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" ref="I35:T35" si="0">SUM(I3:I34)</f>
-        <v>630</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="0"/>
-        <v>713</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="0"/>
-        <v>767</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="0"/>
-        <v>227</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="0"/>
-        <v>18664</v>
-      </c>
-      <c r="S35" s="2">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="T35" s="2">
-        <f t="shared" si="0"/>
-        <v>359</v>
-      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
